--- a/programs/recruitment/Recruitment Model Inputs 1997-2018.xlsx
+++ b/programs/recruitment/Recruitment Model Inputs 1997-2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuretteTJ\Desktop\Stock-Assessment-2020\programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuretteTJ\Desktop\Stock-Assessment-2020\programs\recruitment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="27795" windowHeight="11820" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="27795" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="R-1" sheetId="2" r:id="rId1"/>
@@ -135,8 +135,8 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000E+00"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
-    <numFmt numFmtId="174" formatCode="0.00000"/>
-    <numFmt numFmtId="175" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -696,24 +696,18 @@
     <xf numFmtId="168" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -724,6 +718,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q25"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,34 +2354,34 @@
       <c r="D25" s="3">
         <v>57842.8</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <v>59721.4</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="26">
         <v>101882.4</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="25">
         <v>353</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="25">
         <v>58437.9</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="25">
         <v>4705</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="25">
         <v>49758.7</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="25">
         <v>68188.800000000003</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="25">
         <v>0</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="25">
         <v>0.9</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="25">
         <v>1.7</v>
       </c>
       <c r="P25" s="12">
@@ -3687,13 +3687,13 @@
       <c r="A25" s="3">
         <v>2020</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="26">
         <v>57842.85</v>
       </c>
       <c r="E25" s="3">
@@ -3825,28 +3825,28 @@
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <v>92346563.689999998</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="19">
         <v>176684392.5</v>
       </c>
       <c r="G2" s="3">
         <v>254</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="19">
         <v>98243322.459999993</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <v>10451660.029999999</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="19">
         <v>79352096.810000002</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="19">
         <v>120270743.8</v>
       </c>
       <c r="L2" s="3">
@@ -3866,7 +3866,7 @@
         <f t="shared" ref="P2:P23" si="0">LN((H2^2/(SQRT(I2^2+H2^2)))/1000000)</f>
         <v>4.5818201356309558</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="24">
         <f>SQRT(LN(1+(I2^2)/(H2^2)))</f>
         <v>0.10608626701877581</v>
       </c>
@@ -3881,28 +3881,28 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>106754683.2</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <v>188660059.80000001</v>
       </c>
       <c r="G3" s="3">
         <v>256</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <v>91344142.879999995</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <v>11558926.279999999</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="19">
         <v>70785662.859999999</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="19">
         <v>116015716.90000001</v>
       </c>
       <c r="L3" s="3">
@@ -3922,7 +3922,7 @@
         <f t="shared" si="0"/>
         <v>4.5066910753797691</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="24">
         <f t="shared" ref="Q3:Q23" si="2">SQRT(LN(1+(I3^2)/(H3^2)))</f>
         <v>0.12604037478358349</v>
       </c>
@@ -3937,28 +3937,28 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>170607741.5</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>302172713.30000001</v>
       </c>
       <c r="G4" s="3">
         <v>273</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <v>151058064.59999999</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>16570989.43</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="19">
         <v>121185070</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="19">
         <v>186055975.30000001</v>
       </c>
       <c r="L4" s="3">
@@ -3978,7 +3978,7 @@
         <f t="shared" si="0"/>
         <v>5.0116832262313018</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="24">
         <f t="shared" si="2"/>
         <v>0.10937157257982763</v>
       </c>
@@ -3993,28 +3993,28 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>183132920.40000001</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>246105051.69999999</v>
       </c>
       <c r="G5" s="3">
         <v>275</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>159133467.19999999</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>13791579.9</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>133814660.2</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="19">
         <v>187831966.09999999</v>
       </c>
       <c r="L5" s="3">
@@ -4034,7 +4034,7 @@
         <f t="shared" si="0"/>
         <v>5.0660017379834237</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="24">
         <f t="shared" si="2"/>
         <v>8.6504664338236142E-2</v>
       </c>
@@ -4049,28 +4049,28 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>237716668.5</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>319801281.89999998</v>
       </c>
       <c r="G6" s="3">
         <v>287</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <v>227269084.5</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>17547208.09</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>194817062.40000001</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="19">
         <v>263555749.40000001</v>
       </c>
       <c r="L6" s="3">
@@ -4090,7 +4090,7 @@
         <f t="shared" si="0"/>
         <v>5.4231629474026395</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="24">
         <f t="shared" si="2"/>
         <v>7.7094258240536881E-2</v>
       </c>
@@ -4105,28 +4105,28 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>231074645.19999999</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>382680074.60000002</v>
       </c>
       <c r="G7" s="3">
         <v>311</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>242181025.80000001</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>20117896.510000002</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>205144238.19999999</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <v>283945061.10000002</v>
       </c>
       <c r="L7" s="3">
@@ -4146,7 +4146,7 @@
         <f t="shared" si="0"/>
         <v>5.4862470524276832</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="24">
         <f t="shared" si="2"/>
         <v>8.2926890476212267E-2</v>
       </c>
@@ -4161,29 +4161,29 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>195627519.40000001</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>334624940.60000002</v>
       </c>
       <c r="G8" s="3">
         <v>308</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>202293439.80000001</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <f>H8*0.08</f>
         <v>16183475.184000002</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>164922069.69999999</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>239664809.90000001</v>
       </c>
       <c r="L8" s="3">
@@ -4203,7 +4203,7 @@
         <f t="shared" si="0"/>
         <v>5.3065295120887654</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="24">
         <f t="shared" si="2"/>
         <v>7.9872441830953114E-2</v>
       </c>
@@ -4218,28 +4218,28 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>117615336.09999999</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>184756934.80000001</v>
       </c>
       <c r="G9" s="3">
         <v>332</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>122948431</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>9335973.4340000004</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>105665256.7</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <v>142238389.80000001</v>
       </c>
       <c r="L9" s="3">
@@ -4259,7 +4259,7 @@
         <f t="shared" si="0"/>
         <v>4.8088902964478564</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="24">
         <f t="shared" si="2"/>
         <v>7.5824941118923059E-2</v>
       </c>
@@ -4274,28 +4274,28 @@
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>74647573.599999994</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>129007822.40000001</v>
       </c>
       <c r="G10" s="3">
         <v>339</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>79804418.069999993</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>6322129.1600000001</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>68130474.909999996</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <v>92895655.170000002</v>
       </c>
       <c r="L10" s="3">
@@ -4315,7 +4315,7 @@
         <f t="shared" si="0"/>
         <v>4.3764507456008355</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="24">
         <f t="shared" si="2"/>
         <v>7.9096417214639267E-2</v>
       </c>
@@ -4330,28 +4330,28 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>49362648.439999998</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <v>77097236.549999997</v>
       </c>
       <c r="G11" s="3">
         <v>348</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="19">
         <v>49586581.740000002</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <v>3224179.3879999998</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="19">
         <v>43567262.5</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="19">
         <v>56199939.57</v>
       </c>
       <c r="L11" s="3">
@@ -4371,7 +4371,7 @@
         <f t="shared" si="0"/>
         <v>3.9016108449543778</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="24">
         <f t="shared" si="2"/>
         <v>6.4952640305555975E-2</v>
       </c>
@@ -4386,28 +4386,28 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>46806081.030000001</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>82236699.269999996</v>
       </c>
       <c r="G12" s="3">
         <v>348</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <v>47595968.950000003</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <v>3485376.7889999999</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="19">
         <v>41130126.380000003</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="19">
         <v>54784495.009999998</v>
       </c>
       <c r="L12" s="3">
@@ -4427,7 +4427,7 @@
         <f t="shared" si="0"/>
         <v>3.8600740354679548</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="24">
         <f t="shared" si="2"/>
         <v>7.3130517008903065E-2</v>
       </c>
@@ -4442,28 +4442,28 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>56284287.310000002</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>95240227.700000003</v>
       </c>
       <c r="G13" s="3">
         <v>349</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="19">
         <v>54638836.32</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>4223141.6950000003</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="19">
         <v>46829010.030000001</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="19">
         <v>63372542.369999997</v>
       </c>
       <c r="L13" s="3">
@@ -4483,7 +4483,7 @@
         <f t="shared" si="0"/>
         <v>3.9977667826958472</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="24">
         <f t="shared" si="2"/>
         <v>7.7176876352224921E-2</v>
       </c>
@@ -4498,28 +4498,28 @@
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>74809885.799999997</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>120500511.8</v>
       </c>
       <c r="G14" s="3">
         <v>349</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="19">
         <v>69313393.709999993</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="19">
         <v>5522362.1770000001</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>59119825.899999999</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="19">
         <v>80751970.280000001</v>
       </c>
       <c r="L14" s="3">
@@ -4539,7 +4539,7 @@
         <f t="shared" si="0"/>
         <v>4.2354743467313725</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="24">
         <f t="shared" si="2"/>
         <v>7.9546366586284861E-2</v>
       </c>
@@ -4554,28 +4554,28 @@
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>116829208.5</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>174043031.80000001</v>
       </c>
       <c r="G15" s="3">
         <v>347</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="19">
         <v>110302997.59999999</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="19">
         <v>7427135.6569999997</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="19">
         <v>96461736.129999995</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="19">
         <v>125561060.59999999</v>
       </c>
       <c r="L15" s="3">
@@ -4595,7 +4595,7 @@
         <f t="shared" si="0"/>
         <v>4.7009692962902605</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="24">
         <f t="shared" si="2"/>
         <v>6.7257808327143426E-2</v>
       </c>
@@ -4610,28 +4610,28 @@
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>107454992.3</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>149315303.30000001</v>
       </c>
       <c r="G16" s="3">
         <v>347</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <v>99221908.650000006</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="19">
         <v>6493509.2130000005</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="19">
         <v>87102925.650000006</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="19">
         <v>112545029.3</v>
       </c>
       <c r="L16" s="3">
@@ -4651,7 +4651,7 @@
         <f t="shared" si="0"/>
         <v>4.5952219373455989</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="24">
         <f t="shared" si="2"/>
         <v>6.5374396935427889E-2</v>
       </c>
@@ -4666,28 +4666,28 @@
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>88429828.819999993</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>185527255.40000001</v>
       </c>
       <c r="G17" s="3">
         <v>321</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <v>86407667.129999995</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <v>9946212.1659999993</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="19">
         <v>68554530.469999999</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="19">
         <v>107485987.90000001</v>
       </c>
       <c r="L17" s="3">
@@ -4707,7 +4707,7 @@
         <f t="shared" si="0"/>
         <v>4.4524949938183038</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="24">
         <f t="shared" si="2"/>
         <v>0.11472940325049215</v>
       </c>
@@ -4722,28 +4722,28 @@
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>85681176.099999994</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="19">
         <v>190816329.30000001</v>
       </c>
       <c r="G18" s="3">
         <v>352</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="19">
         <v>85112312.129999995</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="19">
         <v>9611480.0240000002</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="19">
         <v>67829938.390000001</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="19">
         <v>105453263.7</v>
       </c>
       <c r="L18" s="3">
@@ -4763,7 +4763,7 @@
         <f t="shared" si="0"/>
         <v>4.4376357615050628</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="24">
         <f t="shared" si="2"/>
         <v>0.11256946289057629</v>
       </c>
@@ -4778,28 +4778,28 @@
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
         <v>94012074.5</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="19">
         <v>199046254.90000001</v>
       </c>
       <c r="G19" s="3">
         <v>353</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="19">
         <v>93614764.280000001</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="19">
         <v>9776272.8499999996</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="19">
         <v>75916854.75</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="19">
         <v>114193082.59999999</v>
       </c>
       <c r="L19" s="3">
@@ -4819,7 +4819,7 @@
         <f t="shared" si="0"/>
         <v>4.533764723763988</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="24">
         <f t="shared" si="2"/>
         <v>0.10414783064866234</v>
       </c>
@@ -4834,28 +4834,28 @@
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>127261054.40000001</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="19">
         <v>272016114.19999999</v>
       </c>
       <c r="G20" s="3">
         <v>352</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="19">
         <v>124703816.2</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="19">
         <v>12319777.18</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="19">
         <v>102301646.59999999</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="19">
         <v>150542365.40000001</v>
       </c>
       <c r="L20" s="3">
@@ -4875,7 +4875,7 @@
         <f t="shared" si="0"/>
         <v>4.8210851558932966</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="24">
         <f t="shared" si="2"/>
         <v>9.8552517692287817E-2</v>
       </c>
@@ -4890,28 +4890,28 @@
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <v>123640237.2</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="19">
         <v>218967696.90000001</v>
       </c>
       <c r="G21" s="3">
         <v>354</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="19">
         <v>124765796.09999999</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="19">
         <v>9691568.3870000001</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="19">
         <v>106848626.7</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="19">
         <v>144813660.30000001</v>
       </c>
       <c r="L21" s="3">
@@ -4931,7 +4931,7 @@
         <f t="shared" si="0"/>
         <v>4.82343047153981</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="24">
         <f t="shared" si="2"/>
         <v>7.7561293439603315E-2</v>
       </c>
@@ -4946,28 +4946,28 @@
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>120670483.5</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>198181514.59999999</v>
       </c>
       <c r="G22" s="3">
         <v>353</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="19">
         <v>119611087.09999999</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="19">
         <v>9202914.7970000003</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="19">
         <v>102587549.40000001</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="19">
         <v>138638821.30000001</v>
       </c>
       <c r="L22" s="3">
@@ -4987,7 +4987,7 @@
         <f t="shared" si="0"/>
         <v>4.7812943592596886</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="24">
         <f t="shared" si="2"/>
         <v>7.6826811274972318E-2</v>
       </c>
@@ -5002,28 +5002,28 @@
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <v>57842.846010000001</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <v>116337946.59999999</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="19">
         <v>163455466.69999999</v>
       </c>
       <c r="G23" s="3">
         <v>354</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="19">
         <v>116464126.7</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="19">
         <v>7247395.6859999998</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="19">
         <v>102904659.09999999</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="19">
         <v>131301836.09999999</v>
       </c>
       <c r="L23" s="3">
@@ -5043,7 +5043,7 @@
         <f t="shared" si="0"/>
         <v>4.7556508422131056</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="24">
         <f t="shared" si="2"/>
         <v>6.2168449426132671E-2</v>
       </c>
@@ -5058,28 +5058,28 @@
       <c r="C24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="20">
         <v>57842.85</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="20">
         <v>184751500</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="20">
         <v>293881898</v>
       </c>
       <c r="G24" s="6">
         <v>352</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="20">
         <v>185954297</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="20">
         <v>12983887</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <v>161803885</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="20">
         <v>212672503</v>
       </c>
       <c r="L24" s="6">
@@ -5099,7 +5099,7 @@
         <f t="shared" ref="P24" si="4">LN((H24^2/(SQRT(I24^2+H24^2)))/1000000)</f>
         <v>5.2230692255336599</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="24">
         <f t="shared" ref="Q24" si="5">SQRT(LN(1+(I24^2)/(H24^2)))</f>
         <v>6.9738123474725217E-2</v>
       </c>
@@ -5108,40 +5108,40 @@
       <c r="A25" s="3">
         <v>2020</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="27">
         <v>57842.85</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="25">
         <v>172266156.64559501</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="25">
         <v>266269953.06817502</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="25">
         <v>353</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="25">
         <v>170349373.43262899</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="25">
         <v>12017323.296501299</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="25">
         <v>148009272.16702399</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="25">
         <v>195090535.15119502</v>
       </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27">
+      <c r="L25" s="28"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25">
         <f t="shared" ref="O25" si="6">I25/H25</f>
         <v>7.0545157016700138E-2</v>
       </c>
@@ -5149,7 +5149,7 @@
         <f t="shared" ref="P25" si="7">LN((H25^2/(SQRT(I25^2+H25^2)))/1000000)</f>
         <v>5.1353693276116781</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="24">
         <f t="shared" ref="Q25" si="8">SQRT(LN(1+(I25^2)/(H25^2)))</f>
         <v>7.045762372818265E-2</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -5275,7 +5275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:Q25"/>
     </sheetView>
   </sheetViews>
@@ -6548,13 +6548,13 @@
       <c r="A25" s="3">
         <v>2020</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="26">
         <v>57842.85</v>
       </c>
       <c r="E25" s="3">
@@ -6671,8 +6671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6687,32 +6687,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="K1" s="20" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="K1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
       <c r="O1" s="14"/>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -6931,7 +6931,7 @@
       <c r="D6" s="12">
         <v>4.7305128053520074</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="21"/>
       <c r="F6">
         <v>9.60075327862637E-2</v>
       </c>
@@ -6983,7 +6983,7 @@
       <c r="D7" s="12">
         <v>4.9018239672763091</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="21"/>
       <c r="F7">
         <v>0.11195968788838956</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="D8" s="12">
         <v>5.2698686707255664</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="21"/>
       <c r="F8">
         <v>8.7795072887129885E-2</v>
       </c>
@@ -7087,7 +7087,7 @@
       <c r="D9" s="12">
         <v>5.4642199610831961</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="21"/>
       <c r="F9">
         <v>7.3954027379562096E-2</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="D10" s="12">
         <v>5.7331040562576003</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="21"/>
       <c r="F10">
         <v>5.9631585616718906E-2</v>
       </c>
@@ -7191,7 +7191,7 @@
       <c r="D11" s="12">
         <v>5.0963838471238656</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="21"/>
       <c r="F11">
         <v>5.6643457225994134E-2</v>
       </c>
@@ -7243,7 +7243,7 @@
       <c r="D12" s="12">
         <v>4.8846365259369637</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="21"/>
       <c r="F12">
         <v>6.1723816387342548E-2</v>
       </c>
@@ -7295,7 +7295,7 @@
       <c r="D13" s="12">
         <v>4.4473914938858163</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="21"/>
       <c r="F13">
         <v>6.3552412526859225E-2</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="D14" s="12">
         <v>4.1262658822768348</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="21"/>
       <c r="F14">
         <v>7.194219552052683E-2</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="D15" s="12">
         <v>3.9856231519217253</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="21"/>
       <c r="F15">
         <v>7.5048439818444543E-2</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="D16" s="12">
         <v>4.0311342277358078</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="21"/>
       <c r="F16">
         <v>6.9811423626372743E-2</v>
       </c>
@@ -7503,7 +7503,7 @@
       <c r="D17" s="12">
         <v>4.3858035585477833</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="21"/>
       <c r="F17">
         <v>7.1968781724217903E-2</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="D18" s="12">
         <v>4.4802747398742637</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="21"/>
       <c r="F18">
         <v>9.6425093293823538E-2</v>
       </c>
@@ -7607,7 +7607,7 @@
       <c r="D19" s="12">
         <v>4.9459777797934628</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="21"/>
       <c r="F19">
         <v>0.11811896894485545</v>
       </c>
@@ -7659,7 +7659,7 @@
       <c r="D20" s="12">
         <v>4.5128210054546098</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="21"/>
       <c r="F20">
         <v>8.3871516453384767E-2</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="D21" s="12">
         <v>4.55697725031846</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="21"/>
       <c r="F21">
         <v>9.1037443648043989E-2</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="D22" s="12">
         <v>4.6311552324257272</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="21"/>
       <c r="F22">
         <v>6.7346706435741713E-2</v>
       </c>
@@ -7815,7 +7815,7 @@
       <c r="D23" s="12">
         <v>4.6494947862260805</v>
       </c>
-      <c r="E23" s="23"/>
+      <c r="E23" s="21"/>
       <c r="F23">
         <v>7.5420670265482978E-2</v>
       </c>
@@ -7867,7 +7867,7 @@
       <c r="D24" s="12">
         <v>4.6716943372379909</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="21"/>
       <c r="F24">
         <v>7.0800400857917611E-2</v>
       </c>
@@ -7919,7 +7919,7 @@
       <c r="D25" s="12">
         <v>4.7266372096563671</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="6">
         <v>8.0564759812070549E-2</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="D26" s="12">
         <v>4.7246562641573107</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="12">
         <v>8.0382796691415112E-2</v>
       </c>
@@ -8027,7 +8027,7 @@
       <c r="D27" s="12">
         <v>4.9084041152907307</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="6" t="s">
         <v>15</v>
       </c>
@@ -8080,7 +8080,7 @@
       <c r="D28" s="12">
         <v>5.2485581357444318</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="6" t="s">
         <v>15</v>
       </c>
@@ -8133,11 +8133,11 @@
       <c r="D29" s="12">
         <v>5.1961307336689053</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -8154,7 +8154,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="L31" s="24"/>
+      <c r="L31" s="22"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">

--- a/programs/recruitment/Recruitment Model Inputs 1997-2018.xlsx
+++ b/programs/recruitment/Recruitment Model Inputs 1997-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="27795" windowHeight="11820" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="27795" windowHeight="11820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="R-1" sheetId="2" r:id="rId1"/>
@@ -650,7 +650,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -724,6 +724,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1073,7 +1074,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2361,7 @@
       <c r="F25" s="26">
         <v>101882.4</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="31">
         <v>353</v>
       </c>
       <c r="H25" s="25">
@@ -2414,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q25"/>
+      <selection activeCell="Q24" sqref="P24:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,7 +2510,7 @@
       <c r="G2" s="3">
         <v>254</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="19">
         <v>59731832.780000001</v>
       </c>
       <c r="I2" s="3">
@@ -2561,7 +2562,7 @@
       <c r="G3" s="3">
         <v>256</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="19">
         <v>60327460.899999999</v>
       </c>
       <c r="I3" s="3">
@@ -2613,7 +2614,7 @@
       <c r="G4" s="3">
         <v>273</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="19">
         <v>112947093.59999999</v>
       </c>
       <c r="I4" s="3">
@@ -2665,7 +2666,7 @@
       <c r="G5" s="3">
         <v>275</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="19">
         <v>88449623.329999998</v>
       </c>
       <c r="I5" s="3">
@@ -2717,7 +2718,7 @@
       <c r="G6" s="3">
         <v>287</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="19">
         <v>136263321.59999999</v>
       </c>
       <c r="I6" s="3">
@@ -2769,7 +2770,7 @@
       <c r="G7" s="3">
         <v>311</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="19">
         <v>202195282.69999999</v>
       </c>
       <c r="I7" s="3">
@@ -2821,7 +2822,7 @@
       <c r="G8" s="3">
         <v>308</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="19">
         <v>178485325.09999999</v>
       </c>
       <c r="I8" s="3">
@@ -2873,7 +2874,7 @@
       <c r="G9" s="3">
         <v>332</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="19">
         <v>144090400</v>
       </c>
       <c r="I9" s="3">
@@ -2925,7 +2926,7 @@
       <c r="G10" s="3">
         <v>339</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="19">
         <v>117190599.40000001</v>
       </c>
       <c r="I10" s="3">
@@ -2977,7 +2978,7 @@
       <c r="G11" s="3">
         <v>348</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="19">
         <v>65680337.659999996</v>
       </c>
       <c r="I11" s="3">
@@ -3029,7 +3030,7 @@
       <c r="G12" s="3">
         <v>348</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="19">
         <v>55449964.289999999</v>
       </c>
       <c r="I12" s="3">
@@ -3081,7 +3082,7 @@
       <c r="G13" s="3">
         <v>349</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="19">
         <v>45841439.240000002</v>
       </c>
       <c r="I13" s="3">
@@ -3133,7 +3134,7 @@
       <c r="G14" s="3">
         <v>349</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="19">
         <v>43791209.219999999</v>
       </c>
       <c r="I14" s="3">
@@ -3185,7 +3186,7 @@
       <c r="G15" s="3">
         <v>347</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="19">
         <v>72543724.799999997</v>
       </c>
       <c r="I15" s="3">
@@ -3237,7 +3238,7 @@
       <c r="G16" s="3">
         <v>347</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="19">
         <v>88179433.25</v>
       </c>
       <c r="I16" s="3">
@@ -3289,7 +3290,7 @@
       <c r="G17" s="3">
         <v>321</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="19">
         <v>80509186.5</v>
       </c>
       <c r="I17" s="3">
@@ -3341,7 +3342,7 @@
       <c r="G18" s="3">
         <v>352</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="19">
         <v>79432086.959999993</v>
       </c>
       <c r="I18" s="3">
@@ -3393,7 +3394,7 @@
       <c r="G19" s="3">
         <v>353</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="19">
         <v>117187112.7</v>
       </c>
       <c r="I19" s="3">
@@ -3445,7 +3446,7 @@
       <c r="G20" s="3">
         <v>352</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="19">
         <v>127476371.90000001</v>
       </c>
       <c r="I20" s="3">
@@ -3497,7 +3498,7 @@
       <c r="G21" s="3">
         <v>354</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="19">
         <v>101572651.3</v>
       </c>
       <c r="I21" s="3">
@@ -3549,7 +3550,7 @@
       <c r="G22" s="3">
         <v>353</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="19">
         <v>103308656.09999999</v>
       </c>
       <c r="I22" s="3">
@@ -3601,7 +3602,7 @@
       <c r="G23" s="3">
         <v>354</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="19">
         <v>108305804.90000001</v>
       </c>
       <c r="I23" s="3">
@@ -3653,34 +3654,34 @@
       <c r="G24" s="6">
         <v>352</v>
       </c>
-      <c r="H24" s="6">
-        <v>163872847</v>
+      <c r="H24" s="27">
+        <v>185661294.229334</v>
       </c>
       <c r="I24" s="6">
-        <v>14461268</v>
+        <v>16045922.072286401</v>
       </c>
       <c r="J24" s="6">
-        <v>137357461</v>
+        <v>156198371.261336</v>
       </c>
       <c r="K24" s="6">
-        <v>193995997</v>
+        <v>219045520.04934898</v>
       </c>
       <c r="L24" s="6">
-        <v>-20.089410000000001</v>
+        <v>-28.769196033405198</v>
       </c>
       <c r="M24" s="6">
-        <v>2601.741</v>
+        <v>2943.69034365775</v>
       </c>
       <c r="N24" s="6">
-        <v>4704.0959999999995</v>
+        <v>5183.2574068902195</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" ref="P24" si="2">LN((H24^2/(SQRT(I24^2+H24^2)))/1000000)</f>
-        <v>5.0952121308132767</v>
+        <v>5.2202031862057483</v>
       </c>
       <c r="Q24" s="12">
         <f t="shared" ref="Q24" si="3">SQRT(LN(1+(I24^2)/(H24^2)))</f>
-        <v>8.8075798284593054E-2</v>
+        <v>8.6265041663367084E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -3705,7 +3706,7 @@
       <c r="G25" s="3">
         <v>353</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="19">
         <v>202980288.66017699</v>
       </c>
       <c r="I25" s="3">
@@ -3738,6 +3739,23 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="12"/>
     </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3749,7 +3767,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5126,7 +5144,7 @@
       <c r="G25" s="25">
         <v>353</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="27">
         <v>170349373.43262899</v>
       </c>
       <c r="I25" s="25">
@@ -5275,8 +5293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6671,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6778,7 +6796,7 @@
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="13">
         <v>0.10151290707686225</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -6829,10 +6847,10 @@
       <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="13">
         <v>0.14701113898528578</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>0.11031839241074115</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -6880,10 +6898,10 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="13">
         <v>0.11312253493828546</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>0.12083664322036108</v>
       </c>
       <c r="H5" s="12">
@@ -6932,10 +6950,10 @@
         <v>4.7305128053520074</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6">
+      <c r="F6" s="13">
         <v>9.60075327862637E-2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>0.12864074115937241</v>
       </c>
       <c r="H6" s="12">
@@ -6984,10 +7002,10 @@
         <v>4.9018239672763091</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7">
+      <c r="F7" s="13">
         <v>0.11195968788838956</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>0.10120367392046674</v>
       </c>
       <c r="H7" s="12">
@@ -7036,10 +7054,10 @@
         <v>5.2698686707255664</v>
       </c>
       <c r="E8" s="21"/>
-      <c r="F8">
+      <c r="F8" s="13">
         <v>8.7795072887129885E-2</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>9.3653404932871789E-2</v>
       </c>
       <c r="H8" s="12">
@@ -7088,10 +7106,10 @@
         <v>5.4642199610831961</v>
       </c>
       <c r="E9" s="21"/>
-      <c r="F9">
+      <c r="F9" s="13">
         <v>7.3954027379562096E-2</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>8.3595608931868709E-2</v>
       </c>
       <c r="H9" s="12">
@@ -7140,10 +7158,10 @@
         <v>5.7331040562576003</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10">
+      <c r="F10" s="13">
         <v>5.9631585616718906E-2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>7.8295092227036234E-2</v>
       </c>
       <c r="H10" s="12">
@@ -7192,10 +7210,10 @@
         <v>5.0963838471238656</v>
       </c>
       <c r="E11" s="21"/>
-      <c r="F11">
+      <c r="F11" s="13">
         <v>5.6643457225994134E-2</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>7.2783038092628025E-2</v>
       </c>
       <c r="H11" s="12">
@@ -7244,10 +7262,10 @@
         <v>4.8846365259369637</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12">
+      <c r="F12" s="13">
         <v>6.1723816387342548E-2</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>8.2242584667787402E-2</v>
       </c>
       <c r="H12" s="12">
@@ -7296,10 +7314,10 @@
         <v>4.4473914938858163</v>
       </c>
       <c r="E13" s="21"/>
-      <c r="F13">
+      <c r="F13" s="13">
         <v>6.3552412526859225E-2</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>8.9490928748166707E-2</v>
       </c>
       <c r="H13" s="12">
@@ -7348,10 +7366,10 @@
         <v>4.1262658822768348</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14">
+      <c r="F14" s="13">
         <v>7.194219552052683E-2</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>8.7795972616699802E-2</v>
       </c>
       <c r="H14" s="12">
@@ -7400,10 +7418,10 @@
         <v>3.9856231519217253</v>
       </c>
       <c r="E15" s="21"/>
-      <c r="F15">
+      <c r="F15" s="13">
         <v>7.5048439818444543E-2</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>0.11264142018988516</v>
       </c>
       <c r="H15" s="12">
@@ -7452,10 +7470,10 @@
         <v>4.0311342277358078</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16">
+      <c r="F16" s="13">
         <v>6.9811423626372743E-2</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>0.1096812133475602</v>
       </c>
       <c r="H16" s="12">
@@ -7504,10 +7522,10 @@
         <v>4.3858035585477833</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="F17">
+      <c r="F17" s="13">
         <v>7.1968781724217903E-2</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>9.5785735146548132E-2</v>
       </c>
       <c r="H17" s="12">
@@ -7556,10 +7574,10 @@
         <v>4.4802747398742637</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18">
+      <c r="F18" s="13">
         <v>9.6425093293823538E-2</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>6.6927451913130265E-2</v>
       </c>
       <c r="H18" s="12">
@@ -7608,10 +7626,10 @@
         <v>4.9459777797934628</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19">
+      <c r="F19" s="13">
         <v>0.11811896894485545</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>9.1832208796323186E-2</v>
       </c>
       <c r="H19" s="12">
@@ -7660,10 +7678,10 @@
         <v>4.5128210054546098</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20">
+      <c r="F20" s="13">
         <v>8.3871516453384767E-2</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>0.10215224322602443</v>
       </c>
       <c r="H20" s="12">
@@ -7712,10 +7730,10 @@
         <v>4.55697725031846</v>
       </c>
       <c r="E21" s="21"/>
-      <c r="F21">
+      <c r="F21" s="13">
         <v>9.1037443648043989E-2</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>0.10324574735842106</v>
       </c>
       <c r="H21" s="12">
@@ -7764,10 +7782,10 @@
         <v>4.6311552324257272</v>
       </c>
       <c r="E22" s="21"/>
-      <c r="F22">
+      <c r="F22" s="13">
         <v>6.7346706435741713E-2</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>8.6541976550571234E-2</v>
       </c>
       <c r="H22" s="12">
@@ -7816,10 +7834,10 @@
         <v>4.6494947862260805</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23">
+      <c r="F23" s="13">
         <v>7.5420670265482978E-2</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <v>6.6611254757506427E-2</v>
       </c>
       <c r="H23" s="12">
@@ -7868,10 +7886,10 @@
         <v>4.6716943372379909</v>
       </c>
       <c r="E24" s="21"/>
-      <c r="F24">
+      <c r="F24" s="13">
         <v>7.0800400857917611E-2</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <v>6.972719325056706E-2</v>
       </c>
       <c r="H24" s="12">
@@ -7920,10 +7938,10 @@
         <v>4.7266372096563671</v>
       </c>
       <c r="E25" s="21"/>
-      <c r="F25" s="6">
+      <c r="F25" s="13">
         <v>8.0564759812070549E-2</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <v>7.7214743690985424E-2</v>
       </c>
       <c r="H25" s="12">
@@ -7965,7 +7983,7 @@
         <v>4.064733954943299</v>
       </c>
       <c r="B26" s="12">
-        <v>5.0952121308132767</v>
+        <v>5.2202031862057483</v>
       </c>
       <c r="C26" s="12">
         <v>4.7556508422131056</v>
@@ -7974,11 +7992,11 @@
         <v>4.7246562641573107</v>
       </c>
       <c r="E26" s="21"/>
-      <c r="F26" s="12">
+      <c r="F26" s="13">
         <v>8.0382796691415112E-2</v>
       </c>
-      <c r="G26" s="13">
-        <v>8.8075798284593054E-2</v>
+      <c r="G26" s="12">
+        <v>8.6265041663367084E-2</v>
       </c>
       <c r="H26" s="12">
         <v>6.2168449426132671E-2</v>
@@ -8031,7 +8049,7 @@
       <c r="F27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="12">
         <v>8.4592298099316676E-2</v>
       </c>
       <c r="H27" s="12">
@@ -8087,7 +8105,7 @@
       <c r="G28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="12">
         <v>7.045762372818265E-2</v>
       </c>
       <c r="I28" s="13">
@@ -8143,7 +8161,7 @@
       <c r="H29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="13">
         <v>6.1987782056715506E-2</v>
       </c>
     </row>
